--- a/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>18.77314809324723</v>
+        <v>18.77314809324725</v>
       </c>
       <c r="D3">
-        <v>29.1173713442812</v>
+        <v>29.11737134428103</v>
       </c>
       <c r="E3">
-        <v>61.70637593520109</v>
+        <v>61.7063759352005</v>
       </c>
       <c r="F3">
-        <v>156.1262635423072</v>
+        <v>156.126263542307</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>117.4887169618377</v>
+        <v>117.4887169618374</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -479,22 +479,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>19.64058852406423</v>
+        <v>19.64058852406421</v>
       </c>
       <c r="D4">
-        <v>30.26553695705459</v>
+        <v>30.26553695705457</v>
       </c>
       <c r="E4">
-        <v>70.05913738116207</v>
+        <v>70.05913738116213</v>
       </c>
       <c r="F4">
-        <v>159.7790028389923</v>
+        <v>159.7790028389924</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>120.3177379786031</v>
+        <v>120.3177379786032</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -508,22 +508,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>19.84878244691596</v>
+        <v>19.84878244691585</v>
       </c>
       <c r="D5">
-        <v>30.47484197871166</v>
+        <v>30.47484197871167</v>
       </c>
       <c r="E5">
-        <v>74.09381296732343</v>
+        <v>74.09381296732278</v>
       </c>
       <c r="F5">
-        <v>159.7379159736901</v>
+        <v>159.7379159736905</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>120.3245999880356</v>
+        <v>120.3245999880359</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -537,16 +537,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>19.87376764318707</v>
+        <v>19.87376764318709</v>
       </c>
       <c r="D6">
-        <v>30.49245425930705</v>
+        <v>30.49245425930708</v>
       </c>
       <c r="E6">
-        <v>74.81063712058128</v>
+        <v>74.81063712058095</v>
       </c>
       <c r="F6">
-        <v>159.6303547539931</v>
+        <v>159.6303547539932</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -566,16 +566,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>19.64400992624211</v>
+        <v>19.64400992624222</v>
       </c>
       <c r="D7">
-        <v>30.26946130392083</v>
+        <v>30.26946130392081</v>
       </c>
       <c r="E7">
-        <v>70.11044333104044</v>
+        <v>70.11044333104074</v>
       </c>
       <c r="F7">
-        <v>159.7849667927648</v>
+        <v>159.7849667927647</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,22 +595,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D8">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E8">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F8">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -624,22 +624,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D9">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E9">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F9">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -653,22 +653,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D10">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E10">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F10">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -682,22 +682,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D11">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E11">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F11">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -711,22 +711,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D12">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E12">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F12">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D13">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E13">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F13">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -769,22 +769,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D14">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E14">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F14">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D15">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E15">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F15">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -827,22 +827,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D16">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E16">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F16">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -856,22 +856,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D17">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E17">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F17">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -885,22 +885,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D18">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E18">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F18">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -914,22 +914,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D19">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E19">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F19">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D20">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E20">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F20">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -972,22 +972,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D21">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E21">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F21">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1001,22 +1001,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D22">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E22">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F22">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D23">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E23">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F23">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D24">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E24">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F24">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1088,22 +1088,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>16.98611813377489</v>
+        <v>16.98611813377488</v>
       </c>
       <c r="D25">
-        <v>26.47960299920054</v>
+        <v>26.47960299920035</v>
       </c>
       <c r="E25">
-        <v>52.27862911860328</v>
+        <v>52.27862911860242</v>
       </c>
       <c r="F25">
-        <v>144.4543038568358</v>
+        <v>144.4543038568347</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>108.6268050566491</v>
+        <v>108.6268050566482</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>18.77314809324725</v>
+        <v>18.77314809324723</v>
       </c>
       <c r="D3">
-        <v>29.11737134428103</v>
+        <v>29.1173713442812</v>
       </c>
       <c r="E3">
-        <v>61.7063759352005</v>
+        <v>61.70637593520109</v>
       </c>
       <c r="F3">
-        <v>156.126263542307</v>
+        <v>156.1262635423072</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>117.4887169618374</v>
+        <v>117.4887169618377</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -479,22 +479,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>19.64058852406421</v>
+        <v>19.64058852406423</v>
       </c>
       <c r="D4">
-        <v>30.26553695705457</v>
+        <v>30.26553695705459</v>
       </c>
       <c r="E4">
-        <v>70.05913738116213</v>
+        <v>70.05913738116207</v>
       </c>
       <c r="F4">
-        <v>159.7790028389924</v>
+        <v>159.7790028389923</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>120.3177379786032</v>
+        <v>120.3177379786031</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -508,22 +508,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>19.84878244691585</v>
+        <v>19.84878244691596</v>
       </c>
       <c r="D5">
-        <v>30.47484197871167</v>
+        <v>30.47484197871166</v>
       </c>
       <c r="E5">
-        <v>74.09381296732278</v>
+        <v>74.09381296732343</v>
       </c>
       <c r="F5">
-        <v>159.7379159736905</v>
+        <v>159.7379159736901</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>120.3245999880359</v>
+        <v>120.3245999880356</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -537,16 +537,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>19.87376764318709</v>
+        <v>19.87376764318707</v>
       </c>
       <c r="D6">
-        <v>30.49245425930708</v>
+        <v>30.49245425930705</v>
       </c>
       <c r="E6">
-        <v>74.81063712058095</v>
+        <v>74.81063712058128</v>
       </c>
       <c r="F6">
-        <v>159.6303547539932</v>
+        <v>159.6303547539931</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -566,16 +566,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>19.64400992624222</v>
+        <v>19.64400992624211</v>
       </c>
       <c r="D7">
-        <v>30.26946130392081</v>
+        <v>30.26946130392083</v>
       </c>
       <c r="E7">
-        <v>70.11044333104074</v>
+        <v>70.11044333104044</v>
       </c>
       <c r="F7">
-        <v>159.7849667927647</v>
+        <v>159.7849667927648</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,22 +595,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D8">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E8">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F8">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -624,22 +624,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D9">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E9">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F9">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -653,22 +653,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D10">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E10">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F10">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -682,22 +682,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D11">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E11">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F11">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -711,22 +711,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D12">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E12">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F12">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D13">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E13">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F13">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -769,22 +769,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D14">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E14">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F14">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D15">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E15">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F15">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -827,22 +827,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D16">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E16">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F16">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -856,22 +856,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D17">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E17">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F17">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -885,22 +885,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D18">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E18">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F18">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -914,22 +914,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D19">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E19">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F19">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D20">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E20">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F20">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -972,22 +972,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D21">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E21">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F21">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1001,22 +1001,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D22">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E22">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F22">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D23">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E23">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F23">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D24">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E24">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F24">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1088,22 +1088,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>16.98611813377488</v>
+        <v>16.98611813377489</v>
       </c>
       <c r="D25">
-        <v>26.47960299920035</v>
+        <v>26.47960299920054</v>
       </c>
       <c r="E25">
-        <v>52.27862911860242</v>
+        <v>52.27862911860328</v>
       </c>
       <c r="F25">
-        <v>144.4543038568347</v>
+        <v>144.4543038568358</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>108.6268050566482</v>
+        <v>108.6268050566491</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
@@ -420,26 +420,23 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.491226730138358</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.889300215881797</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>31.08433963555986</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>29.47630241556392</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>44.85626948319846</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.24718386980958</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -447,135 +444,816 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
-        <v>0</v>
+        <v>23.09498706671854</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>6.96041118451676</v>
+      </c>
+      <c r="D3">
+        <v>1.84981881468651</v>
+      </c>
+      <c r="E3">
+        <v>28.75934205683022</v>
+      </c>
+      <c r="F3">
+        <v>27.36116990310432</v>
+      </c>
+      <c r="G3">
+        <v>41.61809116223171</v>
+      </c>
+      <c r="H3">
+        <v>10.63477863980078</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>21.41956424008707</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>6.617656167473533</v>
+      </c>
+      <c r="D4">
+        <v>1.826372056020804</v>
+      </c>
+      <c r="E4">
+        <v>27.27194365899684</v>
+      </c>
+      <c r="F4">
+        <v>26.00169701417717</v>
+      </c>
+      <c r="G4">
+        <v>39.53673131537742</v>
+      </c>
+      <c r="H4">
+        <v>10.2513780770373</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>20.34148814445409</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>6.473686881391894</v>
+      </c>
+      <c r="D5">
+        <v>1.816986061564584</v>
+      </c>
+      <c r="E5">
+        <v>26.65023668301137</v>
+      </c>
+      <c r="F5">
+        <v>25.43224790253371</v>
+      </c>
+      <c r="G5">
+        <v>38.66483820549332</v>
+      </c>
+      <c r="H5">
+        <v>10.09342242322585</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>19.88955450629852</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>6.449519826142722</v>
+      </c>
+      <c r="D6">
+        <v>1.815436867529005</v>
+      </c>
+      <c r="E6">
+        <v>26.54604703653698</v>
+      </c>
+      <c r="F6">
+        <v>25.33675391182328</v>
+      </c>
+      <c r="G6">
+        <v>38.51862049145817</v>
+      </c>
+      <c r="H6">
+        <v>10.06709515867115</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>19.81374445826739</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>6.615732011607673</v>
+      </c>
+      <c r="D7">
+        <v>1.826244828745789</v>
+      </c>
+      <c r="E7">
+        <v>27.26362285458374</v>
+      </c>
+      <c r="F7">
+        <v>25.99407998461319</v>
+      </c>
+      <c r="G7">
+        <v>39.52506907178244</v>
+      </c>
+      <c r="H7">
+        <v>10.2492545700986</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>20.33544450440085</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>7.311657030682291</v>
+      </c>
+      <c r="D8">
+        <v>1.875502192692656</v>
+      </c>
+      <c r="E8">
+        <v>30.29476390717273</v>
+      </c>
+      <c r="F8">
+        <v>28.75950056587627</v>
+      </c>
+      <c r="G8">
+        <v>43.75886214001717</v>
+      </c>
+      <c r="H8">
+        <v>11.0376297656188</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>22.52741913720753</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>8.545776149537311</v>
+      </c>
+      <c r="D9">
+        <v>1.980011829844327</v>
+      </c>
+      <c r="E9">
+        <v>35.79100003469986</v>
+      </c>
+      <c r="F9">
+        <v>33.71048316201088</v>
+      </c>
+      <c r="G9">
+        <v>51.34013021524698</v>
+      </c>
+      <c r="H9">
+        <v>12.74219878832975</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>26.44454245501816</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>9.377368881814082</v>
+      </c>
+      <c r="D10">
+        <v>2.064240805589261</v>
+      </c>
+      <c r="E10">
+        <v>39.59925505897473</v>
+      </c>
+      <c r="F10">
+        <v>37.07801137792573</v>
+      </c>
+      <c r="G10">
+        <v>56.50017217823883</v>
+      </c>
+      <c r="H10">
+        <v>14.01729623172768</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>29.10661009624732</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>9.740488318026737</v>
+      </c>
+      <c r="D11">
+        <v>2.104893758553368</v>
+      </c>
+      <c r="E11">
+        <v>41.29342868165824</v>
+      </c>
+      <c r="F11">
+        <v>38.55634844759786</v>
+      </c>
+      <c r="G11">
+        <v>58.76677301382719</v>
+      </c>
+      <c r="H11">
+        <v>14.57787065968222</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>30.27518581352411</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>9.875914414541718</v>
+      </c>
+      <c r="D12">
+        <v>2.120697319513428</v>
+      </c>
+      <c r="E12">
+        <v>41.93064082907424</v>
+      </c>
+      <c r="F12">
+        <v>39.1089509921347</v>
+      </c>
+      <c r="G12">
+        <v>59.6142791196995</v>
+      </c>
+      <c r="H12">
+        <v>14.78753927147736</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>30.71202605866831</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>9.846838687075293</v>
+      </c>
+      <c r="D13">
+        <v>2.117274231754925</v>
+      </c>
+      <c r="E13">
+        <v>41.7935778472702</v>
+      </c>
+      <c r="F13">
+        <v>38.99025019054464</v>
+      </c>
+      <c r="G13">
+        <v>59.43221996986487</v>
+      </c>
+      <c r="H13">
+        <v>14.74249599945235</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>30.61818959294389</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>9.751670943507957</v>
+      </c>
+      <c r="D14">
+        <v>2.10618525961851</v>
+      </c>
+      <c r="E14">
+        <v>41.34593199061163</v>
+      </c>
+      <c r="F14">
+        <v>38.60195282027606</v>
+      </c>
+      <c r="G14">
+        <v>58.83670937289451</v>
+      </c>
+      <c r="H14">
+        <v>14.59517128951278</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>30.31123597706287</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>9.693110427100398</v>
+      </c>
+      <c r="D15">
+        <v>2.099448628982188</v>
+      </c>
+      <c r="E15">
+        <v>41.07120945113687</v>
+      </c>
+      <c r="F15">
+        <v>38.36318625882211</v>
+      </c>
+      <c r="G15">
+        <v>58.47056061865764</v>
+      </c>
+      <c r="H15">
+        <v>14.5045971661398</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>30.1224927952107</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>9.353341315645944</v>
+      </c>
+      <c r="D16">
+        <v>2.061637019085208</v>
+      </c>
+      <c r="E16">
+        <v>39.48786249591006</v>
+      </c>
+      <c r="F16">
+        <v>36.98036086641851</v>
+      </c>
+      <c r="G16">
+        <v>56.35048574693846</v>
+      </c>
+      <c r="H16">
+        <v>13.98028514580318</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>29.02942238394747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>9.141086515999593</v>
+      </c>
+      <c r="D17">
+        <v>2.039087384577074</v>
+      </c>
+      <c r="E17">
+        <v>38.50750660247209</v>
+      </c>
+      <c r="F17">
+        <v>36.11864752750221</v>
+      </c>
+      <c r="G17">
+        <v>55.02974409371061</v>
+      </c>
+      <c r="H17">
+        <v>13.65377521001821</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>28.34827941127514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>9.017567888300091</v>
+      </c>
+      <c r="D18">
+        <v>2.026332307265069</v>
+      </c>
+      <c r="E18">
+        <v>37.93995422835129</v>
+      </c>
+      <c r="F18">
+        <v>35.61793690506774</v>
+      </c>
+      <c r="G18">
+        <v>54.26243496322387</v>
+      </c>
+      <c r="H18">
+        <v>13.46412907494245</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>27.95248312871334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>8.975497148182141</v>
+      </c>
+      <c r="D19">
+        <v>2.02204854097086</v>
+      </c>
+      <c r="E19">
+        <v>37.74712690110726</v>
+      </c>
+      <c r="F19">
+        <v>35.44751938674383</v>
+      </c>
+      <c r="G19">
+        <v>54.00130035635179</v>
+      </c>
+      <c r="H19">
+        <v>13.3995957426276</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>27.81777077363347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>9.163829240327255</v>
+      </c>
+      <c r="D20">
+        <v>2.041465104257539</v>
+      </c>
+      <c r="E20">
+        <v>38.61223999729834</v>
+      </c>
+      <c r="F20">
+        <v>36.21090040928717</v>
+      </c>
+      <c r="G20">
+        <v>55.17112598948751</v>
+      </c>
+      <c r="H20">
+        <v>13.68872254637992</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>28.42120150757955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>9.779679567021384</v>
+      </c>
+      <c r="D21">
+        <v>2.109430604826876</v>
+      </c>
+      <c r="E21">
+        <v>41.47752378546136</v>
+      </c>
+      <c r="F21">
+        <v>38.71619657354419</v>
+      </c>
+      <c r="G21">
+        <v>59.01191151876362</v>
+      </c>
+      <c r="H21">
+        <v>14.63851323605654</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>30.40154598121296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>10.17011057177825</v>
+      </c>
+      <c r="D22">
+        <v>2.156279231639581</v>
+      </c>
+      <c r="E22">
+        <v>43.32558505546466</v>
+      </c>
+      <c r="F22">
+        <v>40.31180658207111</v>
+      </c>
+      <c r="G22">
+        <v>61.45956872844389</v>
+      </c>
+      <c r="H22">
+        <v>15.24416459728645</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>31.66298897303614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>9.962796534361877</v>
+      </c>
+      <c r="D23">
+        <v>2.13102511661873</v>
+      </c>
+      <c r="E23">
+        <v>42.34104756785154</v>
+      </c>
+      <c r="F23">
+        <v>39.46383507044862</v>
+      </c>
+      <c r="G23">
+        <v>60.15862844420982</v>
+      </c>
+      <c r="H23">
+        <v>14.92222565769254</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>30.99257898276388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>9.153551904885497</v>
+      </c>
+      <c r="D24">
+        <v>2.040389491482842</v>
+      </c>
+      <c r="E24">
+        <v>38.56490236337397</v>
+      </c>
+      <c r="F24">
+        <v>36.16920942622108</v>
+      </c>
+      <c r="G24">
+        <v>55.10723220258412</v>
+      </c>
+      <c r="H24">
+        <v>13.67292888495719</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>28.38824653522128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>8.225454170969739</v>
+      </c>
+      <c r="D25">
+        <v>1.950645201183802</v>
+      </c>
+      <c r="E25">
+        <v>34.34796435631878</v>
+      </c>
+      <c r="F25">
+        <v>32.4200006119237</v>
+      </c>
+      <c r="G25">
+        <v>49.36362981220836</v>
+      </c>
+      <c r="H25">
+        <v>12.25426125187085</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>25.42409825363403</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.491226730138358</v>
+        <v>4.927909215762419</v>
       </c>
       <c r="D2">
-        <v>1.889300215881797</v>
+        <v>2.847003690747064</v>
       </c>
       <c r="E2">
-        <v>31.08433963555986</v>
+        <v>16.70553859340209</v>
       </c>
       <c r="F2">
-        <v>29.47630241556392</v>
+        <v>21.44205980522251</v>
       </c>
       <c r="G2">
-        <v>44.85626948319846</v>
+        <v>27.28524728152907</v>
       </c>
       <c r="H2">
-        <v>11.24718386980958</v>
+        <v>11.83963547182538</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.09498706671854</v>
+        <v>18.21424911005318</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.96041118451676</v>
+        <v>4.750711121090916</v>
       </c>
       <c r="D3">
-        <v>1.84981881468651</v>
+        <v>2.842352512310008</v>
       </c>
       <c r="E3">
-        <v>28.75934205683022</v>
+        <v>15.74098122386723</v>
       </c>
       <c r="F3">
-        <v>27.36116990310432</v>
+        <v>20.8346241685243</v>
       </c>
       <c r="G3">
-        <v>41.61809116223171</v>
+        <v>25.9987004640269</v>
       </c>
       <c r="H3">
-        <v>10.63477863980078</v>
+        <v>11.73936962845708</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.41956424008707</v>
+        <v>17.82091217572675</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.617656167473533</v>
+        <v>4.640096136786081</v>
       </c>
       <c r="D4">
-        <v>1.826372056020804</v>
+        <v>2.83951826737273</v>
       </c>
       <c r="E4">
-        <v>27.27194365899684</v>
+        <v>15.12306693296054</v>
       </c>
       <c r="F4">
-        <v>26.00169701417717</v>
+        <v>20.45982776462157</v>
       </c>
       <c r="G4">
-        <v>39.53673131537742</v>
+        <v>25.18411712988713</v>
       </c>
       <c r="H4">
-        <v>10.2513780770373</v>
+        <v>11.68066401629609</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.34148814445409</v>
+        <v>17.58096086381734</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.473686881391894</v>
+        <v>4.594643996562552</v>
       </c>
       <c r="D5">
-        <v>1.816986061564584</v>
+        <v>2.83836839667419</v>
       </c>
       <c r="E5">
-        <v>26.65023668301137</v>
+        <v>14.86507095140317</v>
       </c>
       <c r="F5">
-        <v>25.43224790253371</v>
+        <v>20.30690014922027</v>
       </c>
       <c r="G5">
-        <v>38.66483820549332</v>
+        <v>24.84649731098813</v>
       </c>
       <c r="H5">
-        <v>10.09342242322585</v>
+        <v>11.65748202894917</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.88955450629852</v>
+        <v>17.48372304092086</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.449519826142722</v>
+        <v>4.587076506565086</v>
       </c>
       <c r="D6">
-        <v>1.815436867529005</v>
+        <v>2.838177760593211</v>
       </c>
       <c r="E6">
-        <v>26.54604703653698</v>
+        <v>14.82186579043061</v>
       </c>
       <c r="F6">
-        <v>25.33675391182328</v>
+        <v>20.28150283021154</v>
       </c>
       <c r="G6">
-        <v>38.51862049145817</v>
+        <v>24.79011010989612</v>
       </c>
       <c r="H6">
-        <v>10.06709515867115</v>
+        <v>11.65367805690799</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.81374445826739</v>
+        <v>17.46761413378029</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.615732011607673</v>
+        <v>4.639484562621838</v>
       </c>
       <c r="D7">
-        <v>1.826244828745789</v>
+        <v>2.839502739525875</v>
       </c>
       <c r="E7">
-        <v>27.26362285458374</v>
+        <v>15.11961218647729</v>
       </c>
       <c r="F7">
-        <v>25.99407998461319</v>
+        <v>20.45776576031804</v>
       </c>
       <c r="G7">
-        <v>39.52506907178244</v>
+        <v>25.17958608262031</v>
       </c>
       <c r="H7">
-        <v>10.2492545700986</v>
+        <v>11.68034834722579</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.33544450440085</v>
+        <v>17.57964707429929</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.311657030682291</v>
+        <v>4.867234215169501</v>
       </c>
       <c r="D8">
-        <v>1.875502192692656</v>
+        <v>2.845395285006093</v>
       </c>
       <c r="E8">
-        <v>30.29476390717273</v>
+        <v>16.37843040157255</v>
       </c>
       <c r="F8">
-        <v>28.75950056587627</v>
+        <v>21.23315037590907</v>
       </c>
       <c r="G8">
-        <v>43.75886214001717</v>
+        <v>26.84705228545231</v>
       </c>
       <c r="H8">
-        <v>11.0376297656188</v>
+        <v>11.8044844931332</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.52741913720753</v>
+        <v>18.07839353513229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.545776149537311</v>
+        <v>5.296259412424064</v>
       </c>
       <c r="D9">
-        <v>1.980011829844327</v>
+        <v>2.857137096684656</v>
       </c>
       <c r="E9">
-        <v>35.79100003469986</v>
+        <v>18.78811643531084</v>
       </c>
       <c r="F9">
-        <v>33.71048316201088</v>
+        <v>22.72822437241975</v>
       </c>
       <c r="G9">
-        <v>51.34013021524698</v>
+        <v>29.90193584892394</v>
       </c>
       <c r="H9">
-        <v>12.74219878832975</v>
+        <v>12.06954073893375</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.44454245501816</v>
+        <v>19.06226355741023</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.377368881814082</v>
+        <v>5.596955309575498</v>
       </c>
       <c r="D10">
-        <v>2.064240805589261</v>
+        <v>2.865899395334169</v>
       </c>
       <c r="E10">
-        <v>39.59925505897473</v>
+        <v>20.46965862704372</v>
       </c>
       <c r="F10">
-        <v>37.07801137792573</v>
+        <v>23.79757136625619</v>
       </c>
       <c r="G10">
-        <v>56.50017217823883</v>
+        <v>31.99356861721881</v>
       </c>
       <c r="H10">
-        <v>14.01729623172768</v>
+        <v>12.27596704518579</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>29.10661009624732</v>
+        <v>19.78022120381482</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.740488318026737</v>
+        <v>5.729934621946245</v>
       </c>
       <c r="D11">
-        <v>2.104893758553368</v>
+        <v>2.86991985634056</v>
       </c>
       <c r="E11">
-        <v>41.29342868165824</v>
+        <v>21.19208178177448</v>
       </c>
       <c r="F11">
-        <v>38.55634844759786</v>
+        <v>24.27519565339527</v>
       </c>
       <c r="G11">
-        <v>58.76677301382719</v>
+        <v>32.90844354024771</v>
       </c>
       <c r="H11">
-        <v>14.57787065968222</v>
+        <v>12.37207576034217</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>30.27518581352411</v>
+        <v>20.10410721387772</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.875914414541718</v>
+        <v>5.779695868351556</v>
       </c>
       <c r="D12">
-        <v>2.120697319513428</v>
+        <v>2.871447636775247</v>
       </c>
       <c r="E12">
-        <v>41.93064082907424</v>
+        <v>21.45956983581151</v>
       </c>
       <c r="F12">
-        <v>39.1089509921347</v>
+        <v>24.45460272838351</v>
       </c>
       <c r="G12">
-        <v>59.6142791196995</v>
+        <v>33.24938747018263</v>
       </c>
       <c r="H12">
-        <v>14.78753927147736</v>
+        <v>12.40875721936223</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>30.71202605866831</v>
+        <v>20.22623451673262</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.846838687075293</v>
+        <v>5.76900605608611</v>
       </c>
       <c r="D13">
-        <v>2.117274231754925</v>
+        <v>2.87111835948621</v>
       </c>
       <c r="E13">
-        <v>41.7935778472702</v>
+        <v>21.40223123932992</v>
       </c>
       <c r="F13">
-        <v>38.99025019054464</v>
+        <v>24.41603192272994</v>
       </c>
       <c r="G13">
-        <v>59.43221996986487</v>
+        <v>33.1762069865081</v>
       </c>
       <c r="H13">
-        <v>14.74249599945235</v>
+        <v>12.40084491739519</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>30.61818959294389</v>
+        <v>20.19995739655341</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.751670943507957</v>
+        <v>5.734040688071694</v>
       </c>
       <c r="D14">
-        <v>2.10618525961851</v>
+        <v>2.87004543903816</v>
       </c>
       <c r="E14">
-        <v>41.34593199061163</v>
+        <v>21.21420978851935</v>
       </c>
       <c r="F14">
-        <v>38.60195282027606</v>
+        <v>24.28998584363595</v>
       </c>
       <c r="G14">
-        <v>58.83670937289451</v>
+        <v>32.93660461711536</v>
       </c>
       <c r="H14">
-        <v>14.59517128951278</v>
+        <v>12.37508798279197</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>30.31123597706287</v>
+        <v>20.11416586801241</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.693110427100398</v>
+        <v>5.712544578162932</v>
       </c>
       <c r="D15">
-        <v>2.099448628982188</v>
+        <v>2.869388947936034</v>
       </c>
       <c r="E15">
-        <v>41.07120945113687</v>
+        <v>21.0982507692216</v>
       </c>
       <c r="F15">
-        <v>38.36318625882211</v>
+        <v>24.21258366221598</v>
       </c>
       <c r="G15">
-        <v>58.47056061865764</v>
+        <v>32.78911880636145</v>
       </c>
       <c r="H15">
-        <v>14.5045971661398</v>
+        <v>12.35934762366342</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>30.1224927952107</v>
+        <v>20.06154445023205</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.353341315645944</v>
+        <v>5.588183967418262</v>
       </c>
       <c r="D16">
-        <v>2.061637019085208</v>
+        <v>2.865637373057485</v>
       </c>
       <c r="E16">
-        <v>39.48786249591006</v>
+        <v>20.42159408957464</v>
       </c>
       <c r="F16">
-        <v>36.98036086641851</v>
+        <v>23.76616327202328</v>
       </c>
       <c r="G16">
-        <v>56.35048574693846</v>
+        <v>31.93302164408605</v>
       </c>
       <c r="H16">
-        <v>13.98028514580318</v>
+        <v>12.26972793351929</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.02942238394747</v>
+        <v>19.75898847577349</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.141086515999593</v>
+        <v>5.510881612523719</v>
       </c>
       <c r="D17">
-        <v>2.039087384577074</v>
+        <v>2.863344984699761</v>
       </c>
       <c r="E17">
-        <v>38.50750660247209</v>
+        <v>19.99562288820606</v>
       </c>
       <c r="F17">
-        <v>36.11864752750221</v>
+        <v>23.48989760279737</v>
       </c>
       <c r="G17">
-        <v>55.02974409371061</v>
+        <v>31.39827571243353</v>
       </c>
       <c r="H17">
-        <v>13.65377521001821</v>
+        <v>12.21529267921022</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.34827941127514</v>
+        <v>19.57258892858084</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.017567888300091</v>
+        <v>5.466063290532977</v>
       </c>
       <c r="D18">
-        <v>2.026332307265069</v>
+        <v>2.862029683714377</v>
       </c>
       <c r="E18">
-        <v>37.93995422835129</v>
+        <v>19.74661129124329</v>
       </c>
       <c r="F18">
-        <v>35.61793690506774</v>
+        <v>23.33017627434369</v>
       </c>
       <c r="G18">
-        <v>54.26243496322387</v>
+        <v>31.08726844452471</v>
       </c>
       <c r="H18">
-        <v>13.46412907494245</v>
+        <v>12.18419226319308</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.95248312871334</v>
+        <v>19.46512847085713</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>8.975497148182141</v>
+        <v>5.45082896668603</v>
       </c>
       <c r="D19">
-        <v>2.02204854097086</v>
+        <v>2.861584887426504</v>
       </c>
       <c r="E19">
-        <v>37.74712690110726</v>
+        <v>19.66161140627439</v>
       </c>
       <c r="F19">
-        <v>35.44751938674383</v>
+        <v>23.27596249551335</v>
       </c>
       <c r="G19">
-        <v>54.00130035635179</v>
+        <v>30.98138443994495</v>
       </c>
       <c r="H19">
-        <v>13.3995957426276</v>
+        <v>12.1736990455663</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.81777077363347</v>
+        <v>19.42870566065304</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.163829240327255</v>
+        <v>5.519147792434892</v>
       </c>
       <c r="D20">
-        <v>2.041465104257539</v>
+        <v>2.863588677445582</v>
       </c>
       <c r="E20">
-        <v>38.61223999729834</v>
+        <v>20.04138240899331</v>
       </c>
       <c r="F20">
-        <v>36.21090040928717</v>
+        <v>23.51939291460233</v>
       </c>
       <c r="G20">
-        <v>55.17112598948751</v>
+        <v>31.45555771327269</v>
       </c>
       <c r="H20">
-        <v>13.68872254637992</v>
+        <v>12.2210659575439</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.42120150757955</v>
+        <v>19.59245815574105</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.779679567021384</v>
+        <v>5.744327365249833</v>
       </c>
       <c r="D21">
-        <v>2.109430604826876</v>
+        <v>2.870360434484887</v>
       </c>
       <c r="E21">
-        <v>41.47752378546136</v>
+        <v>21.2696009113484</v>
       </c>
       <c r="F21">
-        <v>38.71619657354419</v>
+        <v>24.32704965068439</v>
       </c>
       <c r="G21">
-        <v>59.01191151876362</v>
+        <v>33.00713256012471</v>
       </c>
       <c r="H21">
-        <v>14.63851323605654</v>
+        <v>12.38264586451355</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>30.40154598121296</v>
+        <v>20.13938006887658</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10.17011057177825</v>
+        <v>5.888008340429301</v>
       </c>
       <c r="D22">
-        <v>2.156279231639581</v>
+        <v>2.874817346523376</v>
       </c>
       <c r="E22">
-        <v>43.32558505546466</v>
+        <v>22.03690264483969</v>
       </c>
       <c r="F22">
-        <v>40.31180658207111</v>
+        <v>24.8463207816222</v>
       </c>
       <c r="G22">
-        <v>61.45956872844389</v>
+        <v>33.9890400606857</v>
       </c>
       <c r="H22">
-        <v>15.24416459728645</v>
+        <v>12.48990748496818</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>31.66298897303614</v>
+        <v>20.49373176747096</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.962796534361877</v>
+        <v>5.811656343170477</v>
       </c>
       <c r="D23">
-        <v>2.13102511661873</v>
+        <v>2.872435633780922</v>
       </c>
       <c r="E23">
-        <v>42.34104756785154</v>
+        <v>21.63060736680953</v>
       </c>
       <c r="F23">
-        <v>39.46383507044862</v>
+        <v>24.57001917168681</v>
       </c>
       <c r="G23">
-        <v>60.15862844420982</v>
+        <v>33.46798535939458</v>
       </c>
       <c r="H23">
-        <v>14.92222565769254</v>
+        <v>12.43251800643282</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>30.99257898276388</v>
+        <v>20.30493171273612</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.153551904885497</v>
+        <v>5.515411820516682</v>
       </c>
       <c r="D24">
-        <v>2.040389491482842</v>
+        <v>2.863478495811163</v>
       </c>
       <c r="E24">
-        <v>38.56490236337397</v>
+        <v>20.02070734994359</v>
       </c>
       <c r="F24">
-        <v>36.16920942622108</v>
+        <v>23.5060608495497</v>
       </c>
       <c r="G24">
-        <v>55.10723220258412</v>
+        <v>31.42967163699104</v>
       </c>
       <c r="H24">
-        <v>13.67292888495719</v>
+        <v>12.21845524834621</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.38824653522128</v>
+        <v>19.58347619283926</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.225454170969739</v>
+        <v>5.182497424841224</v>
       </c>
       <c r="D25">
-        <v>1.950645201183802</v>
+        <v>2.85393841118836</v>
       </c>
       <c r="E25">
-        <v>34.34796435631878</v>
+        <v>18.13092776440014</v>
       </c>
       <c r="F25">
-        <v>32.4200006119237</v>
+        <v>22.32795688141727</v>
       </c>
       <c r="G25">
-        <v>49.36362981220836</v>
+        <v>29.10099330607954</v>
       </c>
       <c r="H25">
-        <v>12.25426125187085</v>
+        <v>11.99567085756481</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.42409825363403</v>
+        <v>18.7963700842242</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.927909215762419</v>
+        <v>7.491226730138302</v>
       </c>
       <c r="D2">
-        <v>2.847003690747064</v>
+        <v>1.889300215881731</v>
       </c>
       <c r="E2">
-        <v>16.70553859340209</v>
+        <v>31.08433963555982</v>
       </c>
       <c r="F2">
-        <v>21.44205980522251</v>
+        <v>29.47630241556389</v>
       </c>
       <c r="G2">
-        <v>27.28524728152907</v>
+        <v>44.85626948319839</v>
       </c>
       <c r="H2">
-        <v>11.83963547182538</v>
+        <v>11.24718386980961</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.21424911005318</v>
+        <v>23.0949870667185</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.750711121090916</v>
+        <v>6.960411184516807</v>
       </c>
       <c r="D3">
-        <v>2.842352512310008</v>
+        <v>1.84981881468651</v>
       </c>
       <c r="E3">
-        <v>15.74098122386723</v>
+        <v>28.75934205683015</v>
       </c>
       <c r="F3">
-        <v>20.8346241685243</v>
+        <v>27.36116990310429</v>
       </c>
       <c r="G3">
-        <v>25.9987004640269</v>
+        <v>41.6180911622317</v>
       </c>
       <c r="H3">
-        <v>11.73936962845708</v>
+        <v>10.63477863980079</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.82091217572675</v>
+        <v>21.41956424008706</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.640096136786081</v>
+        <v>6.617656167473436</v>
       </c>
       <c r="D4">
-        <v>2.83951826737273</v>
+        <v>1.826372056020805</v>
       </c>
       <c r="E4">
-        <v>15.12306693296054</v>
+        <v>27.27194365899694</v>
       </c>
       <c r="F4">
-        <v>20.45982776462157</v>
+        <v>26.00169701417712</v>
       </c>
       <c r="G4">
-        <v>25.18411712988713</v>
+        <v>39.5367313153773</v>
       </c>
       <c r="H4">
-        <v>11.68066401629609</v>
+        <v>10.25137807703728</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.58096086381734</v>
+        <v>20.34148814445404</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.594643996562552</v>
+        <v>6.473686881392035</v>
       </c>
       <c r="D5">
-        <v>2.83836839667419</v>
+        <v>1.816986061564584</v>
       </c>
       <c r="E5">
-        <v>14.86507095140317</v>
+        <v>26.6502366830114</v>
       </c>
       <c r="F5">
-        <v>20.30690014922027</v>
+        <v>25.43224790253376</v>
       </c>
       <c r="G5">
-        <v>24.84649731098813</v>
+        <v>38.66483820549342</v>
       </c>
       <c r="H5">
-        <v>11.65748202894917</v>
+        <v>10.09342242322581</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.48372304092086</v>
+        <v>19.88955450629856</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.587076506565086</v>
+        <v>6.449519826142685</v>
       </c>
       <c r="D6">
-        <v>2.838177760593211</v>
+        <v>1.815436867529005</v>
       </c>
       <c r="E6">
-        <v>14.82186579043061</v>
+        <v>26.54604703653703</v>
       </c>
       <c r="F6">
-        <v>20.28150283021154</v>
+        <v>25.33675391182331</v>
       </c>
       <c r="G6">
-        <v>24.79011010989612</v>
+        <v>38.51862049145821</v>
       </c>
       <c r="H6">
-        <v>11.65367805690799</v>
+        <v>10.06709515867112</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.46761413378029</v>
+        <v>19.81374445826744</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.639484562621838</v>
+        <v>6.615732011607628</v>
       </c>
       <c r="D7">
-        <v>2.839502739525875</v>
+        <v>1.826244828745655</v>
       </c>
       <c r="E7">
-        <v>15.11961218647729</v>
+        <v>27.26362285458384</v>
       </c>
       <c r="F7">
-        <v>20.45776576031804</v>
+        <v>25.99407998461324</v>
       </c>
       <c r="G7">
-        <v>25.17958608262031</v>
+        <v>39.52506907178257</v>
       </c>
       <c r="H7">
-        <v>11.68034834722579</v>
+        <v>10.24925457009859</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.57964707429929</v>
+        <v>20.33544450440091</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.867234215169501</v>
+        <v>7.311657030682316</v>
       </c>
       <c r="D8">
-        <v>2.845395285006093</v>
+        <v>1.875502192692589</v>
       </c>
       <c r="E8">
-        <v>16.37843040157255</v>
+        <v>30.29476390717264</v>
       </c>
       <c r="F8">
-        <v>21.23315037590907</v>
+        <v>28.75950056587627</v>
       </c>
       <c r="G8">
-        <v>26.84705228545231</v>
+        <v>43.75886214001719</v>
       </c>
       <c r="H8">
-        <v>11.8044844931332</v>
+        <v>11.03762976561878</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.07839353513229</v>
+        <v>22.52741913720754</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.296259412424064</v>
+        <v>8.545776149537341</v>
       </c>
       <c r="D9">
-        <v>2.857137096684656</v>
+        <v>1.980011829844259</v>
       </c>
       <c r="E9">
-        <v>18.78811643531084</v>
+        <v>35.79100003469981</v>
       </c>
       <c r="F9">
-        <v>22.72822437241975</v>
+        <v>33.71048316201094</v>
       </c>
       <c r="G9">
-        <v>29.90193584892394</v>
+        <v>51.340130215247</v>
       </c>
       <c r="H9">
-        <v>12.06954073893375</v>
+        <v>12.7421987883298</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.06226355741023</v>
+        <v>26.4445424550182</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.596955309575498</v>
+        <v>9.377368881814014</v>
       </c>
       <c r="D10">
-        <v>2.865899395334169</v>
+        <v>2.064240805589195</v>
       </c>
       <c r="E10">
-        <v>20.46965862704372</v>
+        <v>39.59925505897468</v>
       </c>
       <c r="F10">
-        <v>23.79757136625619</v>
+        <v>37.07801137792568</v>
       </c>
       <c r="G10">
-        <v>31.99356861721881</v>
+        <v>56.50017217823875</v>
       </c>
       <c r="H10">
-        <v>12.27596704518579</v>
+        <v>14.01729623172764</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.78022120381482</v>
+        <v>29.10661009624724</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.729934621946245</v>
+        <v>9.740488318026616</v>
       </c>
       <c r="D11">
-        <v>2.86991985634056</v>
+        <v>2.104893758553436</v>
       </c>
       <c r="E11">
-        <v>21.19208178177448</v>
+        <v>41.29342868165828</v>
       </c>
       <c r="F11">
-        <v>24.27519565339527</v>
+        <v>38.5563484475978</v>
       </c>
       <c r="G11">
-        <v>32.90844354024771</v>
+        <v>58.7667730138271</v>
       </c>
       <c r="H11">
-        <v>12.37207576034217</v>
+        <v>14.57787065968219</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.10410721387772</v>
+        <v>30.27518581352406</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.779695868351556</v>
+        <v>9.875914414541755</v>
       </c>
       <c r="D12">
-        <v>2.871447636775247</v>
+        <v>2.120697319513293</v>
       </c>
       <c r="E12">
-        <v>21.45956983581151</v>
+        <v>41.93064082907425</v>
       </c>
       <c r="F12">
-        <v>24.45460272838351</v>
+        <v>39.10895099213481</v>
       </c>
       <c r="G12">
-        <v>33.24938747018263</v>
+        <v>59.61427911969967</v>
       </c>
       <c r="H12">
-        <v>12.40875721936223</v>
+        <v>14.7875392714774</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.22623451673262</v>
+        <v>30.71202605866841</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.76900605608611</v>
+        <v>9.846838687075195</v>
       </c>
       <c r="D13">
-        <v>2.87111835948621</v>
+        <v>2.117274231754725</v>
       </c>
       <c r="E13">
-        <v>21.40223123932992</v>
+        <v>41.79357784727015</v>
       </c>
       <c r="F13">
-        <v>24.41603192272994</v>
+        <v>38.99025019054456</v>
       </c>
       <c r="G13">
-        <v>33.1762069865081</v>
+        <v>59.43221996986481</v>
       </c>
       <c r="H13">
-        <v>12.40084491739519</v>
+        <v>14.74249599945228</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.19995739655341</v>
+        <v>30.61818959294382</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.734040688071694</v>
+        <v>9.751670943507957</v>
       </c>
       <c r="D14">
-        <v>2.87004543903816</v>
+        <v>2.106185259618309</v>
       </c>
       <c r="E14">
-        <v>21.21420978851935</v>
+        <v>41.34593199061165</v>
       </c>
       <c r="F14">
-        <v>24.28998584363595</v>
+        <v>38.60195282027594</v>
       </c>
       <c r="G14">
-        <v>32.93660461711536</v>
+        <v>58.83670937289433</v>
       </c>
       <c r="H14">
-        <v>12.37508798279197</v>
+        <v>14.59517128951271</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.11416586801241</v>
+        <v>30.31123597706273</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.712544578162932</v>
+        <v>9.693110427100434</v>
       </c>
       <c r="D15">
-        <v>2.869388947936034</v>
+        <v>2.099448628982255</v>
       </c>
       <c r="E15">
-        <v>21.0982507692216</v>
+        <v>41.07120945113682</v>
       </c>
       <c r="F15">
-        <v>24.21258366221598</v>
+        <v>38.36318625882205</v>
       </c>
       <c r="G15">
-        <v>32.78911880636145</v>
+        <v>58.47056061865759</v>
       </c>
       <c r="H15">
-        <v>12.35934762366342</v>
+        <v>14.50459716613978</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.06154445023205</v>
+        <v>30.12249279521065</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.588183967418262</v>
+        <v>9.353341315646007</v>
       </c>
       <c r="D16">
-        <v>2.865637373057485</v>
+        <v>2.061637019085208</v>
       </c>
       <c r="E16">
-        <v>20.42159408957464</v>
+        <v>39.48786249591009</v>
       </c>
       <c r="F16">
-        <v>23.76616327202328</v>
+        <v>36.98036086641854</v>
       </c>
       <c r="G16">
-        <v>31.93302164408605</v>
+        <v>56.35048574693842</v>
       </c>
       <c r="H16">
-        <v>12.26972793351929</v>
+        <v>13.98028514580319</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.75898847577349</v>
+        <v>29.02942238394748</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.510881612523719</v>
+        <v>9.141086515999593</v>
       </c>
       <c r="D17">
-        <v>2.863344984699761</v>
+        <v>2.039087384577142</v>
       </c>
       <c r="E17">
-        <v>19.99562288820606</v>
+        <v>38.50750660247213</v>
       </c>
       <c r="F17">
-        <v>23.48989760279737</v>
+        <v>36.11864752750218</v>
       </c>
       <c r="G17">
-        <v>31.39827571243353</v>
+        <v>55.0297440937105</v>
       </c>
       <c r="H17">
-        <v>12.21529267921022</v>
+        <v>13.65377521001823</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.57258892858084</v>
+        <v>28.3482794112751</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.466063290532977</v>
+        <v>9.01756788830005</v>
       </c>
       <c r="D18">
-        <v>2.862029683714377</v>
+        <v>2.026332307265069</v>
       </c>
       <c r="E18">
-        <v>19.74661129124329</v>
+        <v>37.93995422835134</v>
       </c>
       <c r="F18">
-        <v>23.33017627434369</v>
+        <v>35.61793690506786</v>
       </c>
       <c r="G18">
-        <v>31.08726844452471</v>
+        <v>54.26243496322412</v>
       </c>
       <c r="H18">
-        <v>12.18419226319308</v>
+        <v>13.46412907494249</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.46512847085713</v>
+        <v>27.95248312871346</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.45082896668603</v>
+        <v>8.975497148182168</v>
       </c>
       <c r="D19">
-        <v>2.861584887426504</v>
+        <v>2.022048540970658</v>
       </c>
       <c r="E19">
-        <v>19.66161140627439</v>
+        <v>37.74712690110723</v>
       </c>
       <c r="F19">
-        <v>23.27596249551335</v>
+        <v>35.44751938674379</v>
       </c>
       <c r="G19">
-        <v>30.98138443994495</v>
+        <v>54.00130035635172</v>
       </c>
       <c r="H19">
-        <v>12.1736990455663</v>
+        <v>13.39959574262756</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.42870566065304</v>
+        <v>27.81777077363341</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5.519147792434892</v>
+        <v>9.163829240327219</v>
       </c>
       <c r="D20">
-        <v>2.863588677445582</v>
+        <v>2.04146510425727</v>
       </c>
       <c r="E20">
-        <v>20.04138240899331</v>
+        <v>38.6122399972984</v>
       </c>
       <c r="F20">
-        <v>23.51939291460233</v>
+        <v>36.2109004092873</v>
       </c>
       <c r="G20">
-        <v>31.45555771327269</v>
+        <v>55.17112598948768</v>
       </c>
       <c r="H20">
-        <v>12.2210659575439</v>
+        <v>13.68872254637991</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.59245815574105</v>
+        <v>28.42120150757962</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.744327365249833</v>
+        <v>9.779679567021333</v>
       </c>
       <c r="D21">
-        <v>2.870360434484887</v>
+        <v>2.109430604826809</v>
       </c>
       <c r="E21">
-        <v>21.2696009113484</v>
+        <v>41.47752378546141</v>
       </c>
       <c r="F21">
-        <v>24.32704965068439</v>
+        <v>38.71619657354425</v>
       </c>
       <c r="G21">
-        <v>33.00713256012471</v>
+        <v>59.01191151876375</v>
       </c>
       <c r="H21">
-        <v>12.38264586451355</v>
+        <v>14.63851323605656</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.13938006887658</v>
+        <v>30.40154598121301</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>5.888008340429301</v>
+        <v>10.17011057177827</v>
       </c>
       <c r="D22">
-        <v>2.874817346523376</v>
+        <v>2.156279231639514</v>
       </c>
       <c r="E22">
-        <v>22.03690264483969</v>
+        <v>43.32558505546463</v>
       </c>
       <c r="F22">
-        <v>24.8463207816222</v>
+        <v>40.31180658207127</v>
       </c>
       <c r="G22">
-        <v>33.9890400606857</v>
+        <v>61.45956872844408</v>
       </c>
       <c r="H22">
-        <v>12.48990748496818</v>
+        <v>15.24416459728647</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.49373176747096</v>
+        <v>31.66298897303624</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.811656343170477</v>
+        <v>9.962796534361864</v>
       </c>
       <c r="D23">
-        <v>2.872435633780922</v>
+        <v>2.131025116618664</v>
       </c>
       <c r="E23">
-        <v>21.63060736680953</v>
+        <v>42.34104756785149</v>
       </c>
       <c r="F23">
-        <v>24.57001917168681</v>
+        <v>39.46383507044846</v>
       </c>
       <c r="G23">
-        <v>33.46798535939458</v>
+        <v>60.15862844420958</v>
       </c>
       <c r="H23">
-        <v>12.43251800643282</v>
+        <v>14.92222565769248</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.30493171273612</v>
+        <v>30.99257898276376</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.515411820516682</v>
+        <v>9.15355190488555</v>
       </c>
       <c r="D24">
-        <v>2.863478495811163</v>
+        <v>2.040389491482776</v>
       </c>
       <c r="E24">
-        <v>20.02070734994359</v>
+        <v>38.56490236337392</v>
       </c>
       <c r="F24">
-        <v>23.5060608495497</v>
+        <v>36.16920942622113</v>
       </c>
       <c r="G24">
-        <v>31.42967163699104</v>
+        <v>55.10723220258424</v>
       </c>
       <c r="H24">
-        <v>12.21845524834621</v>
+        <v>13.67292888495719</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.58347619283926</v>
+        <v>28.38824653522132</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.182497424841224</v>
+        <v>8.225454170969746</v>
       </c>
       <c r="D25">
-        <v>2.85393841118836</v>
+        <v>1.950645201183802</v>
       </c>
       <c r="E25">
-        <v>18.13092776440014</v>
+        <v>34.34796435631867</v>
       </c>
       <c r="F25">
-        <v>22.32795688141727</v>
+        <v>32.42000061192363</v>
       </c>
       <c r="G25">
-        <v>29.10099330607954</v>
+        <v>49.36362981220816</v>
       </c>
       <c r="H25">
-        <v>11.99567085756481</v>
+        <v>12.25426125187083</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.7963700842242</v>
+        <v>25.42409825363395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>7.491226730138302</v>
+        <v>4.352719451873562</v>
       </c>
       <c r="D2">
-        <v>1.889300215881731</v>
+        <v>4.187748234538384</v>
       </c>
       <c r="E2">
-        <v>31.08433963555982</v>
+        <v>28.91136321784165</v>
       </c>
       <c r="F2">
-        <v>29.47630241556389</v>
+        <v>22.1973228936493</v>
       </c>
       <c r="G2">
-        <v>44.85626948319839</v>
+        <v>30.18635004169741</v>
       </c>
       <c r="H2">
-        <v>11.24718386980961</v>
+        <v>2.962815438453523</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.683750604914498</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.11333193998681</v>
+      </c>
+      <c r="K2">
+        <v>17.45609241492482</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
+      <c r="M2">
+        <v>24.68706441326056</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
       <c r="O2">
-        <v>23.0949870667185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>6.960411184516807</v>
+        <v>4.056241722857652</v>
       </c>
       <c r="D3">
-        <v>1.84981881468651</v>
+        <v>4.127676789026112</v>
       </c>
       <c r="E3">
-        <v>28.75934205683015</v>
+        <v>26.98548415870118</v>
       </c>
       <c r="F3">
-        <v>27.36116990310429</v>
+        <v>21.44590422317086</v>
       </c>
       <c r="G3">
-        <v>41.6180911622317</v>
+        <v>29.01665039797294</v>
       </c>
       <c r="H3">
-        <v>10.63477863980079</v>
+        <v>2.683463840778094</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.433852868104136</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.02123034689506</v>
+      </c>
+      <c r="K3">
+        <v>17.02185354629327</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
+      <c r="M3">
+        <v>23.08395527944712</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
       <c r="O3">
-        <v>21.41956424008706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>6.617656167473436</v>
+        <v>3.861811794649413</v>
       </c>
       <c r="D4">
-        <v>1.826372056020805</v>
+        <v>4.089835830225885</v>
       </c>
       <c r="E4">
-        <v>27.27194365899694</v>
+        <v>25.73723485372625</v>
       </c>
       <c r="F4">
-        <v>26.00169701417712</v>
+        <v>20.98492399222607</v>
       </c>
       <c r="G4">
-        <v>39.5367313153773</v>
+        <v>28.29461552583865</v>
       </c>
       <c r="H4">
-        <v>10.25137807703728</v>
+        <v>2.506528908071598</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.27617455781531</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.969051035954269</v>
+      </c>
+      <c r="K4">
+        <v>16.75521024151393</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
+      <c r="M4">
+        <v>22.04237647687186</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
       <c r="O4">
-        <v>20.34148814445404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>6.473686881392035</v>
+        <v>3.768749881060481</v>
       </c>
       <c r="D5">
-        <v>1.816986061564584</v>
+        <v>4.075930824637009</v>
       </c>
       <c r="E5">
-        <v>26.6502366830114</v>
+        <v>25.21154674904647</v>
       </c>
       <c r="F5">
-        <v>25.43224790253376</v>
+        <v>20.78046887816799</v>
       </c>
       <c r="G5">
-        <v>38.66483820549342</v>
+        <v>27.96895726842742</v>
       </c>
       <c r="H5">
-        <v>10.09342242322581</v>
+        <v>2.43277049659916</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.21078068060724</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.943271933836545</v>
+      </c>
+      <c r="K5">
+        <v>16.63126583109926</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
+      <c r="M5">
+        <v>21.60322885396192</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
       <c r="O5">
-        <v>19.88955450629856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>6.449519826142685</v>
+        <v>3.740089083911935</v>
       </c>
       <c r="D6">
-        <v>1.815436867529005</v>
+        <v>4.075762236143246</v>
       </c>
       <c r="E6">
-        <v>26.54604703653703</v>
+        <v>25.12277162619203</v>
       </c>
       <c r="F6">
-        <v>25.33675391182331</v>
+        <v>20.72588658288397</v>
       </c>
       <c r="G6">
-        <v>38.51862049145821</v>
+        <v>27.87722920528279</v>
       </c>
       <c r="H6">
-        <v>10.06709515867112</v>
+        <v>2.420118975377083</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.199975029870211</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.932247713949643</v>
+      </c>
+      <c r="K6">
+        <v>16.59192083147413</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
+      <c r="M6">
+        <v>21.52911705313439</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="O6">
-        <v>19.81374445826744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>6.615732011607628</v>
+        <v>3.825834366114931</v>
       </c>
       <c r="D7">
-        <v>1.826244828745655</v>
+        <v>4.095546150052011</v>
       </c>
       <c r="E7">
-        <v>27.26362285458384</v>
+        <v>25.72892195347364</v>
       </c>
       <c r="F7">
-        <v>25.99407998461324</v>
+        <v>20.92634454931607</v>
       </c>
       <c r="G7">
-        <v>39.52506907178257</v>
+        <v>28.18871022850939</v>
       </c>
       <c r="H7">
-        <v>10.24925457009859</v>
+        <v>2.504678719572554</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.275301907943305</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.950162396235569</v>
+      </c>
+      <c r="K7">
+        <v>16.70262565737714</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
+      <c r="M7">
+        <v>22.0356548910725</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
       <c r="O7">
-        <v>20.33544450440091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>7.311657030682316</v>
+        <v>4.210641011710593</v>
       </c>
       <c r="D8">
-        <v>1.875502192692589</v>
+        <v>4.175111583535869</v>
       </c>
       <c r="E8">
-        <v>30.29476390717264</v>
+        <v>28.25926535973008</v>
       </c>
       <c r="F8">
-        <v>28.75950056587627</v>
+        <v>21.8672524917099</v>
       </c>
       <c r="G8">
-        <v>43.75886214001719</v>
+        <v>29.65557690366463</v>
       </c>
       <c r="H8">
-        <v>11.03762976561878</v>
+        <v>2.866498980449276</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.597960623242237</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.05639594754351</v>
+      </c>
+      <c r="K8">
+        <v>17.24083696922411</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
+      <c r="M8">
+        <v>24.14509224345788</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
       <c r="O8">
-        <v>22.52741913720754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>8.545776149537341</v>
+        <v>4.924492363915729</v>
       </c>
       <c r="D9">
-        <v>1.980011829844259</v>
+        <v>4.312731838712691</v>
       </c>
       <c r="E9">
-        <v>35.79100003469981</v>
+        <v>32.70639189135036</v>
       </c>
       <c r="F9">
-        <v>33.71048316201094</v>
+        <v>23.80281340020196</v>
       </c>
       <c r="G9">
-        <v>51.340130215247</v>
+        <v>32.66108282003582</v>
       </c>
       <c r="H9">
-        <v>12.7421987883298</v>
+        <v>3.536165752112207</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.199655526350854</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.3342383848005</v>
+      </c>
+      <c r="K9">
+        <v>18.38118525392337</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
+      <c r="M9">
+        <v>27.83106168673609</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
-        <v>26.4445424550182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>9.377368881814014</v>
+        <v>5.412576984211383</v>
       </c>
       <c r="D10">
-        <v>2.064240805589195</v>
+        <v>4.446976686951783</v>
       </c>
       <c r="E10">
-        <v>39.59925505897468</v>
+        <v>34.78481983218636</v>
       </c>
       <c r="F10">
-        <v>37.07801137792568</v>
+        <v>24.94043502961423</v>
       </c>
       <c r="G10">
-        <v>56.50017217823875</v>
+        <v>34.34253664987969</v>
       </c>
       <c r="H10">
-        <v>14.01729623172764</v>
+        <v>3.967054851758231</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.61351309619338</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.4647808040492</v>
+      </c>
+      <c r="K10">
+        <v>19.0134371698182</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
+      <c r="M10">
+        <v>30.26097713396236</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
       <c r="O10">
-        <v>29.10661009624724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>9.740488318026616</v>
+        <v>5.872329695994069</v>
       </c>
       <c r="D11">
-        <v>2.104893758553436</v>
+        <v>4.849958741164213</v>
       </c>
       <c r="E11">
-        <v>41.29342868165828</v>
+        <v>28.19210919740367</v>
       </c>
       <c r="F11">
-        <v>38.5563484475978</v>
+        <v>23.23853212598349</v>
       </c>
       <c r="G11">
-        <v>58.7667730138271</v>
+        <v>31.14576993377722</v>
       </c>
       <c r="H11">
-        <v>14.57787065968219</v>
+        <v>4.358878919347625</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.713052765553467</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.727258565667066</v>
+      </c>
+      <c r="K11">
+        <v>17.70280894928616</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
+      <c r="M11">
+        <v>31.25798622020344</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
       <c r="O11">
-        <v>30.27518581352406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>9.875914414541755</v>
+        <v>6.224455303721563</v>
       </c>
       <c r="D12">
-        <v>2.120697319513293</v>
+        <v>5.184384236904646</v>
       </c>
       <c r="E12">
-        <v>41.93064082907425</v>
+        <v>22.22782470280104</v>
       </c>
       <c r="F12">
-        <v>39.10895099213481</v>
+        <v>21.61471188562846</v>
       </c>
       <c r="G12">
-        <v>59.61427911969967</v>
+        <v>28.19008552609917</v>
       </c>
       <c r="H12">
-        <v>14.7875392714774</v>
+        <v>5.194342016711257</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.721629359195894</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.103523569082093</v>
+      </c>
+      <c r="K12">
+        <v>16.52472262929438</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="M12">
+        <v>31.61163044015866</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
       <c r="O12">
-        <v>30.71202605866841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>9.846838687075195</v>
+        <v>6.48471012610054</v>
       </c>
       <c r="D13">
-        <v>2.117274231754725</v>
+        <v>5.490439526419023</v>
       </c>
       <c r="E13">
-        <v>41.79357784727015</v>
+        <v>16.25988329718194</v>
       </c>
       <c r="F13">
-        <v>38.99025019054456</v>
+        <v>19.83839625702263</v>
       </c>
       <c r="G13">
-        <v>59.43221996986481</v>
+        <v>25.02797106402242</v>
       </c>
       <c r="H13">
-        <v>14.74249599945228</v>
+        <v>6.234167256893187</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.660771752165703</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.501260865551261</v>
+      </c>
+      <c r="K13">
+        <v>15.28897697130109</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
+      <c r="M13">
+        <v>31.50264782686537</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
       <c r="O13">
-        <v>30.61818959294382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>9.751670943507957</v>
+        <v>6.622793294193789</v>
       </c>
       <c r="D14">
-        <v>2.106185259618309</v>
+        <v>5.696240641105822</v>
       </c>
       <c r="E14">
-        <v>41.34593199061165</v>
+        <v>12.12332722091928</v>
       </c>
       <c r="F14">
-        <v>38.60195282027594</v>
+        <v>18.49821805961366</v>
       </c>
       <c r="G14">
-        <v>58.83670937289433</v>
+        <v>22.66694708581065</v>
       </c>
       <c r="H14">
-        <v>14.59517128951271</v>
+        <v>7.042914062286658</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.588266945104859</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.09008877213723</v>
+      </c>
+      <c r="K14">
+        <v>14.38321574149042</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
+      <c r="M14">
+        <v>31.21647632322652</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
       <c r="O14">
-        <v>30.31123597706273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>9.693110427100434</v>
+        <v>6.623509844729826</v>
       </c>
       <c r="D15">
-        <v>2.099448628982255</v>
+        <v>5.740239357790757</v>
       </c>
       <c r="E15">
-        <v>41.07120945113682</v>
+        <v>11.11819890962906</v>
       </c>
       <c r="F15">
-        <v>38.36318625882205</v>
+        <v>18.12121717656843</v>
       </c>
       <c r="G15">
-        <v>58.47056061865759</v>
+        <v>22.01384746163869</v>
       </c>
       <c r="H15">
-        <v>14.50459716613978</v>
+        <v>7.228092066483699</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.554648843457004</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.990093712959363</v>
+      </c>
+      <c r="K15">
+        <v>14.13504234741955</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
+      <c r="M15">
+        <v>31.04582741764101</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
       <c r="O15">
-        <v>30.12249279521065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>9.353341315646007</v>
+        <v>6.378375335520277</v>
       </c>
       <c r="D16">
-        <v>2.061637019085208</v>
+        <v>5.626913288221168</v>
       </c>
       <c r="E16">
-        <v>39.48786249591009</v>
+        <v>10.94345408546015</v>
       </c>
       <c r="F16">
-        <v>36.98036086641854</v>
+        <v>17.87203475514633</v>
       </c>
       <c r="G16">
-        <v>56.35048574693842</v>
+        <v>21.6936891491758</v>
       </c>
       <c r="H16">
-        <v>13.98028514580319</v>
+        <v>6.940549778403293</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.392660615070082</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.044538087140076</v>
+      </c>
+      <c r="K16">
+        <v>14.04941508936849</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
+      <c r="M16">
+        <v>30.07089074210907</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
       <c r="O16">
-        <v>29.02942238394748</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>9.141086515999593</v>
+        <v>6.105026381990104</v>
       </c>
       <c r="D17">
-        <v>2.039087384577142</v>
+        <v>5.426045654038973</v>
       </c>
       <c r="E17">
-        <v>38.50750660247213</v>
+        <v>13.06773940076346</v>
       </c>
       <c r="F17">
-        <v>36.11864752750218</v>
+        <v>18.41710897073578</v>
       </c>
       <c r="G17">
-        <v>55.0297440937105</v>
+        <v>22.75080264845581</v>
       </c>
       <c r="H17">
-        <v>13.65377521001823</v>
+        <v>6.236833020862075</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.305758384779877</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.301739895585285</v>
+      </c>
+      <c r="K17">
+        <v>14.47121769389314</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
+      <c r="M17">
+        <v>29.46518771639835</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
       <c r="O17">
-        <v>28.3482794112751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>9.01756788830005</v>
+        <v>5.81138897562712</v>
       </c>
       <c r="D18">
-        <v>2.026332307265069</v>
+        <v>5.130234994986882</v>
       </c>
       <c r="E18">
-        <v>37.93995422835134</v>
+        <v>17.68402788096936</v>
       </c>
       <c r="F18">
-        <v>35.61793690506786</v>
+        <v>19.74124396463655</v>
       </c>
       <c r="G18">
-        <v>54.26243496322412</v>
+        <v>25.1750137127305</v>
       </c>
       <c r="H18">
-        <v>13.46412907494249</v>
+        <v>5.177535040202862</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.278186368749531</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.781064717274282</v>
+      </c>
+      <c r="K18">
+        <v>15.41632298877624</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
+      <c r="M18">
+        <v>29.12509303455136</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
       <c r="O18">
-        <v>27.95248312871346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>8.975497148182168</v>
+        <v>5.48568790721159</v>
       </c>
       <c r="D19">
-        <v>2.022048540970658</v>
+        <v>4.81459735076323</v>
       </c>
       <c r="E19">
-        <v>37.74712690110723</v>
+        <v>24.00726032712454</v>
       </c>
       <c r="F19">
-        <v>35.44751938674379</v>
+        <v>21.49261415764398</v>
       </c>
       <c r="G19">
-        <v>54.00130035635172</v>
+        <v>28.33605544341609</v>
       </c>
       <c r="H19">
-        <v>13.39959574262756</v>
+        <v>4.1635461612841</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.310682236426234</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.386646316818865</v>
+      </c>
+      <c r="K19">
+        <v>16.63576576892456</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
+      <c r="M19">
+        <v>29.03171248149718</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
       <c r="O19">
-        <v>27.81777077363341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>9.163829240327219</v>
+        <v>5.207376198855866</v>
       </c>
       <c r="D20">
-        <v>2.04146510425727</v>
+        <v>4.432635834034791</v>
       </c>
       <c r="E20">
-        <v>38.6122399972984</v>
+        <v>34.20746426359401</v>
       </c>
       <c r="F20">
-        <v>36.2109004092873</v>
+        <v>24.48059852603851</v>
       </c>
       <c r="G20">
-        <v>55.17112598948768</v>
+        <v>33.61406344880201</v>
       </c>
       <c r="H20">
-        <v>13.68872254637991</v>
+        <v>3.850336198870564</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.505929347573881</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.36991135488076</v>
+      </c>
+      <c r="K20">
+        <v>18.69695774969446</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
+      <c r="M20">
+        <v>29.63843128296397</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
       <c r="O20">
-        <v>28.42120150757962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>9.779679567021333</v>
+        <v>5.537942397669386</v>
       </c>
       <c r="D21">
-        <v>2.109430604826809</v>
+        <v>4.475675685477283</v>
       </c>
       <c r="E21">
-        <v>41.47752378546141</v>
+        <v>37.08093683511158</v>
       </c>
       <c r="F21">
-        <v>38.71619657354425</v>
+        <v>25.77388048435129</v>
       </c>
       <c r="G21">
-        <v>59.01191151876375</v>
+        <v>35.6523179572476</v>
       </c>
       <c r="H21">
-        <v>14.63851323605656</v>
+        <v>4.234732689120445</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.835167662414985</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.63121070856699</v>
+      </c>
+      <c r="K21">
+        <v>19.49021950719596</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
+      <c r="M21">
+        <v>31.42863753060466</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
       <c r="O21">
-        <v>30.40154598121301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>10.17011057177827</v>
+        <v>5.792170356493339</v>
       </c>
       <c r="D22">
-        <v>2.156279231639514</v>
+        <v>4.513080208796446</v>
       </c>
       <c r="E22">
-        <v>43.32558505546463</v>
+        <v>38.45095715165953</v>
       </c>
       <c r="F22">
-        <v>40.31180658207127</v>
+        <v>26.54500205346096</v>
       </c>
       <c r="G22">
-        <v>61.45956872844408</v>
+        <v>36.84810689274084</v>
       </c>
       <c r="H22">
-        <v>15.24416459728647</v>
+        <v>4.463599174471303</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.04246271612941</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.78347616402868</v>
+      </c>
+      <c r="K22">
+        <v>19.97201922207791</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
+      <c r="M22">
+        <v>32.54853445910241</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
       <c r="O22">
-        <v>31.66298897303624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>9.962796534361864</v>
+        <v>5.686253240695735</v>
       </c>
       <c r="D23">
-        <v>2.131025116618664</v>
+        <v>4.486074019867754</v>
       </c>
       <c r="E23">
-        <v>42.34104756785149</v>
+        <v>37.7259760190456</v>
       </c>
       <c r="F23">
-        <v>39.46383507044846</v>
+        <v>26.18781698595395</v>
       </c>
       <c r="G23">
-        <v>60.15862844420958</v>
+        <v>36.30664333564045</v>
       </c>
       <c r="H23">
-        <v>14.92222565769248</v>
+        <v>4.342630081669509</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.931863952855671</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.72202838833684</v>
+      </c>
+      <c r="K23">
+        <v>19.76705983283841</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
+      <c r="M23">
+        <v>31.95605488299003</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
       <c r="O23">
-        <v>30.99257898276376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>9.15355190488555</v>
+        <v>5.22353953002945</v>
       </c>
       <c r="D24">
-        <v>2.040389491482776</v>
+        <v>4.392969589081771</v>
       </c>
       <c r="E24">
-        <v>38.56490236337392</v>
+        <v>34.87058462307677</v>
       </c>
       <c r="F24">
-        <v>36.16920942622113</v>
+        <v>24.74588217518532</v>
       </c>
       <c r="G24">
-        <v>55.10723220258424</v>
+        <v>34.09288479384271</v>
       </c>
       <c r="H24">
-        <v>13.67292888495719</v>
+        <v>3.876447619035244</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.508210742686345</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.46913507121067</v>
+      </c>
+      <c r="K24">
+        <v>18.90837354682986</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
+      <c r="M24">
+        <v>29.61463640548171</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
       <c r="O24">
-        <v>28.38824653522132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>8.225454170969746</v>
+        <v>4.68944673166246</v>
       </c>
       <c r="D25">
-        <v>1.950645201183802</v>
+        <v>4.287230431745378</v>
       </c>
       <c r="E25">
-        <v>34.34796435631867</v>
+        <v>31.55581543007225</v>
       </c>
       <c r="F25">
-        <v>32.42000061192363</v>
+        <v>23.18917501894039</v>
       </c>
       <c r="G25">
-        <v>49.36362981220816</v>
+        <v>31.68983982617658</v>
       </c>
       <c r="H25">
-        <v>12.25426125187083</v>
+        <v>3.357754116257615</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.03996130726744</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.22237733293484</v>
+      </c>
+      <c r="K25">
+        <v>17.98751498694919</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
+      <c r="M25">
+        <v>26.8805254343262</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
       <c r="O25">
-        <v>25.42409825363395</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,43 +436,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.352719451873562</v>
+        <v>3.166469760870366</v>
       </c>
       <c r="D2">
-        <v>4.187748234538384</v>
+        <v>4.448208555108994</v>
       </c>
       <c r="E2">
-        <v>28.91136321784165</v>
+        <v>28.84620243498468</v>
       </c>
       <c r="F2">
-        <v>22.1973228936493</v>
+        <v>20.31754389292665</v>
       </c>
       <c r="G2">
-        <v>30.18635004169741</v>
+        <v>26.21007987093341</v>
       </c>
       <c r="H2">
-        <v>2.962815438453523</v>
+        <v>2.919008539581084</v>
       </c>
       <c r="I2">
-        <v>3.683750604914498</v>
+        <v>3.604147676439098</v>
       </c>
       <c r="J2">
-        <v>10.11333193998681</v>
+        <v>9.998204431862785</v>
       </c>
       <c r="K2">
-        <v>17.45609241492482</v>
+        <v>15.70713143738241</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.94295138006922</v>
       </c>
       <c r="M2">
-        <v>24.68706441326056</v>
+        <v>9.656998269938487</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>24.64440028227428</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,8 +480,14 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,43 +495,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.056241722857652</v>
+        <v>2.933237390044527</v>
       </c>
       <c r="D3">
-        <v>4.127676789026112</v>
+        <v>4.333670035997107</v>
       </c>
       <c r="E3">
-        <v>26.98548415870118</v>
+        <v>26.94409214304743</v>
       </c>
       <c r="F3">
-        <v>21.44590422317086</v>
+        <v>19.79875203298104</v>
       </c>
       <c r="G3">
-        <v>29.01665039797294</v>
+        <v>25.45729206272097</v>
       </c>
       <c r="H3">
-        <v>2.683463840778094</v>
+        <v>2.655686915471169</v>
       </c>
       <c r="I3">
-        <v>3.433852868104136</v>
+        <v>3.39540096982606</v>
       </c>
       <c r="J3">
-        <v>10.02123034689506</v>
+        <v>9.946938968929429</v>
       </c>
       <c r="K3">
-        <v>17.02185354629327</v>
+        <v>15.47938717612401</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.94880360940016</v>
       </c>
       <c r="M3">
-        <v>23.08395527944712</v>
+        <v>9.233164484227071</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>23.05663034302611</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,8 +539,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,43 +554,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.861811794649413</v>
+        <v>2.784066600671396</v>
       </c>
       <c r="D4">
-        <v>4.089835830225885</v>
+        <v>4.261954094122144</v>
       </c>
       <c r="E4">
-        <v>25.73723485372625</v>
+        <v>25.7106470175813</v>
       </c>
       <c r="F4">
-        <v>20.98492399222607</v>
+        <v>19.48335349571495</v>
       </c>
       <c r="G4">
-        <v>28.29461552583865</v>
+        <v>25.00379347238064</v>
       </c>
       <c r="H4">
-        <v>2.506528908071598</v>
+        <v>2.48873959980717</v>
       </c>
       <c r="I4">
-        <v>3.27617455781531</v>
+        <v>3.263673529038485</v>
       </c>
       <c r="J4">
-        <v>9.969051035954269</v>
+        <v>9.916572178413583</v>
       </c>
       <c r="K4">
-        <v>16.75521024151393</v>
+        <v>15.34007887712666</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.94782811603318</v>
       </c>
       <c r="M4">
-        <v>22.04237647687186</v>
+        <v>8.991115063793414</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>22.02471512235948</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,8 +598,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,43 +613,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.768749881060481</v>
+        <v>2.713416536873297</v>
       </c>
       <c r="D5">
-        <v>4.075930824637009</v>
+        <v>4.234388255106988</v>
       </c>
       <c r="E5">
-        <v>25.21154674904647</v>
+        <v>25.1911259073713</v>
       </c>
       <c r="F5">
-        <v>20.78046887816799</v>
+        <v>19.3406715238348</v>
       </c>
       <c r="G5">
-        <v>27.96895726842742</v>
+        <v>24.79356423738366</v>
       </c>
       <c r="H5">
-        <v>2.43277049659916</v>
+        <v>2.419129907311963</v>
       </c>
       <c r="I5">
-        <v>3.21078068060724</v>
+        <v>3.209345199576055</v>
       </c>
       <c r="J5">
-        <v>9.943271933836545</v>
+        <v>9.899724908689063</v>
       </c>
       <c r="K5">
-        <v>16.63126583109926</v>
+        <v>15.27022252345887</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.93597323099834</v>
       </c>
       <c r="M5">
-        <v>21.60322885396192</v>
+        <v>8.887630127182009</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>21.58962544532402</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,8 +657,14 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,43 +672,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.740089083911935</v>
+        <v>2.691512111732662</v>
       </c>
       <c r="D6">
-        <v>4.075762236143246</v>
+        <v>4.232231346008294</v>
       </c>
       <c r="E6">
-        <v>25.12277162619203</v>
+        <v>25.10344996538868</v>
       </c>
       <c r="F6">
-        <v>20.72588658288397</v>
+        <v>19.29869923771577</v>
       </c>
       <c r="G6">
-        <v>27.87722920528279</v>
+        <v>24.7250197328772</v>
       </c>
       <c r="H6">
-        <v>2.420118975377083</v>
+        <v>2.40721526654851</v>
       </c>
       <c r="I6">
-        <v>3.199975029870211</v>
+        <v>3.200803764441976</v>
       </c>
       <c r="J6">
-        <v>9.932247713949643</v>
+        <v>9.891163390130558</v>
       </c>
       <c r="K6">
-        <v>16.59192083147413</v>
+        <v>15.24249769461731</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.92137412512436</v>
       </c>
       <c r="M6">
-        <v>21.52911705313439</v>
+        <v>8.858591663098753</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>21.51623963576929</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,8 +716,14 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,43 +731,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.825834366114931</v>
+        <v>2.764017025200492</v>
       </c>
       <c r="D7">
-        <v>4.095546150052011</v>
+        <v>4.272329367162877</v>
       </c>
       <c r="E7">
-        <v>25.72892195347364</v>
+        <v>25.70196143746268</v>
       </c>
       <c r="F7">
-        <v>20.92634454931607</v>
+        <v>19.40166331615696</v>
       </c>
       <c r="G7">
-        <v>28.18871022850939</v>
+        <v>24.97628261115257</v>
       </c>
       <c r="H7">
-        <v>2.504678719572554</v>
+        <v>2.486634300614019</v>
       </c>
       <c r="I7">
-        <v>3.275301907943305</v>
+        <v>3.263308999434504</v>
       </c>
       <c r="J7">
-        <v>9.950162396235569</v>
+        <v>9.850153239821205</v>
       </c>
       <c r="K7">
-        <v>16.70262565737714</v>
+        <v>15.27622203366805</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.89940945394746</v>
       </c>
       <c r="M7">
-        <v>22.0356548910725</v>
+        <v>8.941346125575498</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>22.0177457550396</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,8 +775,14 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,43 +790,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.210641011710593</v>
+        <v>3.078177229034571</v>
       </c>
       <c r="D8">
-        <v>4.175111583535869</v>
+        <v>4.4314707991359</v>
       </c>
       <c r="E8">
-        <v>28.25926535973008</v>
+        <v>28.20055587841748</v>
       </c>
       <c r="F8">
-        <v>21.8672524917099</v>
+        <v>19.97821215081734</v>
       </c>
       <c r="G8">
-        <v>29.65557690366463</v>
+        <v>26.04780059050757</v>
       </c>
       <c r="H8">
-        <v>2.866498980449276</v>
+        <v>2.827019591354765</v>
       </c>
       <c r="I8">
-        <v>3.597960623242237</v>
+        <v>3.531545761598173</v>
       </c>
       <c r="J8">
-        <v>10.05639594754351</v>
+        <v>9.795045637173745</v>
       </c>
       <c r="K8">
-        <v>17.24083696922411</v>
+        <v>15.51020769054636</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.85882307873125</v>
       </c>
       <c r="M8">
-        <v>24.14509224345788</v>
+        <v>9.412724461007457</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>24.10655378498747</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,8 +834,14 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,43 +849,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.924492363915729</v>
+        <v>3.662111118031965</v>
       </c>
       <c r="D9">
-        <v>4.312731838712691</v>
+        <v>4.704510107290888</v>
       </c>
       <c r="E9">
-        <v>32.70639189135036</v>
+        <v>32.5880175929254</v>
       </c>
       <c r="F9">
-        <v>23.80281340020196</v>
+        <v>21.32810182143369</v>
       </c>
       <c r="G9">
-        <v>32.66108282003582</v>
+        <v>28.12404106382463</v>
       </c>
       <c r="H9">
-        <v>3.536165752112207</v>
+        <v>3.456899254920961</v>
       </c>
       <c r="I9">
-        <v>4.199655526350854</v>
+        <v>4.032395830142595</v>
       </c>
       <c r="J9">
-        <v>10.3342383848005</v>
+        <v>9.906018651400998</v>
       </c>
       <c r="K9">
-        <v>18.38118525392337</v>
+        <v>16.12041971923305</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.85231771039032</v>
       </c>
       <c r="M9">
-        <v>27.83106168673609</v>
+        <v>10.57653273701717</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>27.75449091353327</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,8 +893,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,43 +908,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.412576984211383</v>
+        <v>4.120691957900685</v>
       </c>
       <c r="D10">
-        <v>4.446976686951783</v>
+        <v>4.960243232188438</v>
       </c>
       <c r="E10">
-        <v>34.78481983218636</v>
+        <v>34.61997249248827</v>
       </c>
       <c r="F10">
-        <v>24.94043502961423</v>
+        <v>21.9474751680607</v>
       </c>
       <c r="G10">
-        <v>34.34253664987969</v>
+        <v>29.60302886831327</v>
       </c>
       <c r="H10">
-        <v>3.967054851758231</v>
+        <v>3.858089902025434</v>
       </c>
       <c r="I10">
-        <v>4.61351309619338</v>
+        <v>4.374139842995688</v>
       </c>
       <c r="J10">
-        <v>10.4647808040492</v>
+        <v>9.643769988466982</v>
       </c>
       <c r="K10">
-        <v>19.0134371698182</v>
+        <v>16.31536562539891</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.65086760071288</v>
       </c>
       <c r="M10">
-        <v>30.26097713396236</v>
+        <v>11.26514618386746</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>30.15541112059302</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,8 +952,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,43 +967,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.872329695994069</v>
+        <v>4.672101969894817</v>
       </c>
       <c r="D11">
-        <v>4.849958741164213</v>
+        <v>5.465170010239428</v>
       </c>
       <c r="E11">
-        <v>28.19210919740367</v>
+        <v>28.00695467019914</v>
       </c>
       <c r="F11">
-        <v>23.23853212598349</v>
+        <v>20.08394366490692</v>
       </c>
       <c r="G11">
-        <v>31.14576993377722</v>
+        <v>27.42877231148723</v>
       </c>
       <c r="H11">
-        <v>4.358878919347625</v>
+        <v>4.257009813604032</v>
       </c>
       <c r="I11">
-        <v>4.713052765553467</v>
+        <v>4.455726730199077</v>
       </c>
       <c r="J11">
-        <v>9.727258565667066</v>
+        <v>8.519671572619542</v>
       </c>
       <c r="K11">
-        <v>17.70280894928616</v>
+        <v>14.98672560086781</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.60797008813403</v>
       </c>
       <c r="M11">
-        <v>31.25798622020344</v>
+        <v>10.40232494384095</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>31.14538522402305</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,8 +1011,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,43 +1026,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.224455303721563</v>
+        <v>5.111839665503442</v>
       </c>
       <c r="D12">
-        <v>5.184384236904646</v>
+        <v>5.834316952778633</v>
       </c>
       <c r="E12">
-        <v>22.22782470280104</v>
+        <v>22.02697180476708</v>
       </c>
       <c r="F12">
-        <v>21.61471188562846</v>
+        <v>18.51959246720562</v>
       </c>
       <c r="G12">
-        <v>28.19008552609917</v>
+        <v>25.15650643259853</v>
       </c>
       <c r="H12">
-        <v>5.194342016711257</v>
+        <v>5.112476205111737</v>
       </c>
       <c r="I12">
-        <v>4.721629359195894</v>
+        <v>4.462594491213805</v>
       </c>
       <c r="J12">
-        <v>9.103523569082093</v>
+        <v>7.878139579285684</v>
       </c>
       <c r="K12">
-        <v>16.52472262929438</v>
+        <v>13.94649556427993</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.8766746011164</v>
       </c>
       <c r="M12">
-        <v>31.61163044015866</v>
+        <v>9.613942726517323</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>31.49928389673065</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,8 +1070,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,43 +1085,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.48471012610054</v>
+        <v>5.450906332048491</v>
       </c>
       <c r="D13">
-        <v>5.490439526419023</v>
+        <v>6.113791183380701</v>
       </c>
       <c r="E13">
-        <v>16.25988329718194</v>
+        <v>16.04033387786443</v>
       </c>
       <c r="F13">
-        <v>19.83839625702263</v>
+        <v>17.05490553569897</v>
       </c>
       <c r="G13">
-        <v>25.02797106402242</v>
+        <v>22.33222646906312</v>
       </c>
       <c r="H13">
-        <v>6.234167256893187</v>
+        <v>6.172743551128599</v>
       </c>
       <c r="I13">
-        <v>4.660771752165703</v>
+        <v>4.414882429597404</v>
       </c>
       <c r="J13">
-        <v>8.501260865551261</v>
+        <v>7.577121215348466</v>
       </c>
       <c r="K13">
-        <v>15.28897697130109</v>
+        <v>13.03172528561801</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.30519782155047</v>
       </c>
       <c r="M13">
-        <v>31.50264782686537</v>
+        <v>8.803844027741386</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>31.39680941236393</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,8 +1129,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,43 +1144,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.622793294193789</v>
+        <v>5.642779065455345</v>
       </c>
       <c r="D14">
-        <v>5.696240641105822</v>
+        <v>6.272115020403278</v>
       </c>
       <c r="E14">
-        <v>12.12332722091928</v>
+        <v>11.87989876136064</v>
       </c>
       <c r="F14">
-        <v>18.49821805961366</v>
+        <v>16.04941884954067</v>
       </c>
       <c r="G14">
-        <v>22.66694708581065</v>
+        <v>20.06436731194191</v>
       </c>
       <c r="H14">
-        <v>7.042914062286658</v>
+        <v>6.993839408522197</v>
       </c>
       <c r="I14">
-        <v>4.588266945104859</v>
+        <v>4.358248085790196</v>
       </c>
       <c r="J14">
-        <v>8.09008877213723</v>
+        <v>7.485684448440056</v>
       </c>
       <c r="K14">
-        <v>14.38321574149042</v>
+        <v>12.43392911123031</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.96377246793886</v>
       </c>
       <c r="M14">
-        <v>31.21647632322652</v>
+        <v>8.211917356886529</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>31.11780739775764</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,8 +1188,14 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,43 +1203,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.623509844729826</v>
+        <v>5.654030082319449</v>
       </c>
       <c r="D15">
-        <v>5.740239357790757</v>
+        <v>6.293169204841666</v>
       </c>
       <c r="E15">
-        <v>11.11819890962906</v>
+        <v>10.86916750861455</v>
       </c>
       <c r="F15">
-        <v>18.12121717656843</v>
+        <v>15.80494441137354</v>
       </c>
       <c r="G15">
-        <v>22.01384746163869</v>
+        <v>19.37662784026262</v>
       </c>
       <c r="H15">
-        <v>7.228092066483699</v>
+        <v>7.182335981080469</v>
       </c>
       <c r="I15">
-        <v>4.554648843457004</v>
+        <v>4.332300546992272</v>
       </c>
       <c r="J15">
-        <v>7.990093712959363</v>
+        <v>7.507428258751933</v>
       </c>
       <c r="K15">
-        <v>14.13504234741955</v>
+        <v>12.29699855044109</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.89750651335533</v>
       </c>
       <c r="M15">
-        <v>31.04582741764101</v>
+        <v>8.049560650166427</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>30.95032414284272</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,8 +1247,14 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,43 +1262,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.378375335520277</v>
+        <v>5.365352329144389</v>
       </c>
       <c r="D16">
-        <v>5.626913288221168</v>
+        <v>6.088806182801658</v>
       </c>
       <c r="E16">
-        <v>10.94345408546015</v>
+        <v>10.72916514620923</v>
       </c>
       <c r="F16">
-        <v>17.87203475514633</v>
+        <v>15.96352721956518</v>
       </c>
       <c r="G16">
-        <v>21.6936891491758</v>
+        <v>18.58109921840809</v>
       </c>
       <c r="H16">
-        <v>6.940549778403293</v>
+        <v>6.901406213763154</v>
       </c>
       <c r="I16">
-        <v>4.392660615070082</v>
+        <v>4.20303751760122</v>
       </c>
       <c r="J16">
-        <v>8.044538087140076</v>
+        <v>7.940512811851905</v>
       </c>
       <c r="K16">
-        <v>14.04941508936849</v>
+        <v>12.49025880212878</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.12353649485605</v>
       </c>
       <c r="M16">
-        <v>30.07089074210907</v>
+        <v>7.992391658372779</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>29.98876605487632</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,8 +1306,14 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,43 +1321,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.105026381990104</v>
+        <v>5.037651365301524</v>
       </c>
       <c r="D17">
-        <v>5.426045654038973</v>
+        <v>5.853594009014143</v>
       </c>
       <c r="E17">
-        <v>13.06773940076346</v>
+        <v>12.89221218083167</v>
       </c>
       <c r="F17">
-        <v>18.41710897073578</v>
+        <v>16.59961859479859</v>
       </c>
       <c r="G17">
-        <v>22.75080264845581</v>
+        <v>19.30984993677951</v>
       </c>
       <c r="H17">
-        <v>6.236833020862075</v>
+        <v>6.197305219256216</v>
       </c>
       <c r="I17">
-        <v>4.305758384779877</v>
+        <v>4.132497043190318</v>
       </c>
       <c r="J17">
-        <v>8.301739895585285</v>
+        <v>8.310626617001414</v>
       </c>
       <c r="K17">
-        <v>14.47121769389314</v>
+        <v>12.93808900526867</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.47653855794887</v>
       </c>
       <c r="M17">
-        <v>29.46518771639835</v>
+        <v>8.250240564108324</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>29.38925398168315</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,8 +1365,14 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,43 +1380,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.81138897562712</v>
+        <v>4.661939514565237</v>
       </c>
       <c r="D18">
-        <v>5.130234994986882</v>
+        <v>5.553861489816208</v>
       </c>
       <c r="E18">
-        <v>17.68402788096936</v>
+        <v>17.53810820568385</v>
       </c>
       <c r="F18">
-        <v>19.74124396463655</v>
+        <v>17.80537573602862</v>
       </c>
       <c r="G18">
-        <v>25.1750137127305</v>
+        <v>21.34737165868692</v>
       </c>
       <c r="H18">
-        <v>5.177535040202862</v>
+        <v>5.129749006058907</v>
       </c>
       <c r="I18">
-        <v>4.278186368749531</v>
+        <v>4.107817342547978</v>
       </c>
       <c r="J18">
-        <v>8.781064717274282</v>
+        <v>8.75286859434628</v>
       </c>
       <c r="K18">
-        <v>15.41632298877624</v>
+        <v>13.7281121951932</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.03681708204192</v>
       </c>
       <c r="M18">
-        <v>29.12509303455136</v>
+        <v>8.857155062405251</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>29.04996050575225</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,8 +1424,14 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,43 +1439,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.48568790721159</v>
+        <v>4.261260283017379</v>
       </c>
       <c r="D19">
-        <v>4.81459735076323</v>
+        <v>5.246857931541516</v>
       </c>
       <c r="E19">
-        <v>24.00726032712454</v>
+        <v>23.87305575289682</v>
       </c>
       <c r="F19">
-        <v>21.49261415764398</v>
+        <v>19.31608168573127</v>
       </c>
       <c r="G19">
-        <v>28.33605544341609</v>
+        <v>24.06642569903116</v>
       </c>
       <c r="H19">
-        <v>4.1635461612841</v>
+        <v>4.097745790329841</v>
       </c>
       <c r="I19">
-        <v>4.310682236426234</v>
+        <v>4.133668498901793</v>
       </c>
       <c r="J19">
-        <v>9.386646316818865</v>
+        <v>9.238702154319403</v>
       </c>
       <c r="K19">
-        <v>16.63576576892456</v>
+        <v>14.68861644712845</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.69815848122954</v>
       </c>
       <c r="M19">
-        <v>29.03171248149718</v>
+        <v>9.647702880930034</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>28.9527648317937</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,8 +1483,14 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,43 +1498,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.207376198855866</v>
+        <v>3.932735554237059</v>
       </c>
       <c r="D20">
-        <v>4.432635834034791</v>
+        <v>4.901636773135983</v>
       </c>
       <c r="E20">
-        <v>34.20746426359401</v>
+        <v>34.05745862913572</v>
       </c>
       <c r="F20">
-        <v>24.48059852603851</v>
+        <v>21.73282116268465</v>
       </c>
       <c r="G20">
-        <v>33.61406344880201</v>
+        <v>28.74069456114243</v>
       </c>
       <c r="H20">
-        <v>3.850336198870564</v>
+        <v>3.750804599480096</v>
       </c>
       <c r="I20">
-        <v>4.505929347573881</v>
+        <v>4.29117673793734</v>
       </c>
       <c r="J20">
-        <v>10.36991135488076</v>
+        <v>9.833864792124993</v>
       </c>
       <c r="K20">
-        <v>18.69695774969446</v>
+        <v>16.19563643044283</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.65731853992242</v>
       </c>
       <c r="M20">
-        <v>29.63843128296397</v>
+        <v>11.02624088292105</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>29.54218596906756</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,8 +1542,14 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,43 +1557,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.537942397669386</v>
+        <v>4.329450313221129</v>
       </c>
       <c r="D21">
-        <v>4.475675685477283</v>
+        <v>5.111587103267317</v>
       </c>
       <c r="E21">
-        <v>37.08093683511158</v>
+        <v>36.88393763551218</v>
       </c>
       <c r="F21">
-        <v>25.77388048435129</v>
+        <v>22.09397008297148</v>
       </c>
       <c r="G21">
-        <v>35.6523179572476</v>
+        <v>31.63588291197889</v>
       </c>
       <c r="H21">
-        <v>4.234732689120445</v>
+        <v>4.104504645106861</v>
       </c>
       <c r="I21">
-        <v>4.835167662414985</v>
+        <v>4.551781507018869</v>
       </c>
       <c r="J21">
-        <v>10.63121070856699</v>
+        <v>8.897375135024927</v>
       </c>
       <c r="K21">
-        <v>19.49021950719596</v>
+        <v>16.27205476068071</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.45238720810141</v>
       </c>
       <c r="M21">
-        <v>31.42863753060466</v>
+        <v>11.50303755186089</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>31.30235448237529</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,8 +1601,14 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,43 +1616,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.792170356493339</v>
+        <v>4.625933273098257</v>
       </c>
       <c r="D22">
-        <v>4.513080208796446</v>
+        <v>5.264157712717174</v>
       </c>
       <c r="E22">
-        <v>38.45095715165953</v>
+        <v>38.22313558976821</v>
       </c>
       <c r="F22">
-        <v>26.54500205346096</v>
+        <v>22.24989894549281</v>
       </c>
       <c r="G22">
-        <v>36.84810689274084</v>
+        <v>33.4855918604387</v>
       </c>
       <c r="H22">
-        <v>4.463599174471303</v>
+        <v>4.313848325199808</v>
       </c>
       <c r="I22">
-        <v>5.04246271612941</v>
+        <v>4.714299798968212</v>
       </c>
       <c r="J22">
-        <v>10.78347616402868</v>
+        <v>8.252854550128413</v>
       </c>
       <c r="K22">
-        <v>19.97201922207791</v>
+        <v>16.28027895764929</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.28866924422594</v>
       </c>
       <c r="M22">
-        <v>32.54853445910241</v>
+        <v>11.78333261304147</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>32.40278097010388</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,8 +1660,14 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,43 +1675,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.686253240695735</v>
+        <v>4.474538864248626</v>
       </c>
       <c r="D23">
-        <v>4.486074019867754</v>
+        <v>5.163680506072783</v>
       </c>
       <c r="E23">
-        <v>37.7259760190456</v>
+        <v>37.51541948777362</v>
       </c>
       <c r="F23">
-        <v>26.18781698595395</v>
+        <v>22.28101509688042</v>
       </c>
       <c r="G23">
-        <v>36.30664333564045</v>
+        <v>32.43547325638737</v>
       </c>
       <c r="H23">
-        <v>4.342630081669509</v>
+        <v>4.203835481215054</v>
       </c>
       <c r="I23">
-        <v>4.931863952855671</v>
+        <v>4.627283783934102</v>
       </c>
       <c r="J23">
-        <v>10.72202838833684</v>
+        <v>8.716720458758873</v>
       </c>
       <c r="K23">
-        <v>19.76705983283841</v>
+        <v>16.36510015664246</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.43577166311246</v>
       </c>
       <c r="M23">
-        <v>31.95605488299003</v>
+        <v>11.70654274598516</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>31.82120796368351</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,8 +1719,14 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,43 +1734,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.22353953002945</v>
+        <v>3.931391177129943</v>
       </c>
       <c r="D24">
-        <v>4.392969589081771</v>
+        <v>4.857804014511664</v>
       </c>
       <c r="E24">
-        <v>34.87058462307677</v>
+        <v>34.7199717045057</v>
       </c>
       <c r="F24">
-        <v>24.74588217518532</v>
+        <v>21.97008256148902</v>
       </c>
       <c r="G24">
-        <v>34.09288479384271</v>
+        <v>29.15373725288036</v>
       </c>
       <c r="H24">
-        <v>3.876447619035244</v>
+        <v>3.776170679228237</v>
       </c>
       <c r="I24">
-        <v>4.508210742686345</v>
+        <v>4.290463001225714</v>
       </c>
       <c r="J24">
-        <v>10.46913507121067</v>
+        <v>9.922117067306733</v>
       </c>
       <c r="K24">
-        <v>18.90837354682986</v>
+        <v>16.37359393283838</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.78407905077975</v>
       </c>
       <c r="M24">
-        <v>29.61463640548171</v>
+        <v>11.16642697357682</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>29.51769735255966</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,8 +1778,14 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.68944673166246</v>
+        <v>3.46523480512594</v>
       </c>
       <c r="D25">
-        <v>4.287230431745378</v>
+        <v>4.638418481880051</v>
       </c>
       <c r="E25">
-        <v>31.55581543007225</v>
+        <v>31.45482330254068</v>
       </c>
       <c r="F25">
-        <v>23.18917501894039</v>
+        <v>20.91834970074366</v>
       </c>
       <c r="G25">
-        <v>31.68983982617658</v>
+        <v>27.31878733013394</v>
       </c>
       <c r="H25">
-        <v>3.357754116257615</v>
+        <v>3.289954537691801</v>
       </c>
       <c r="I25">
-        <v>4.03996130726744</v>
+        <v>3.90240913305469</v>
       </c>
       <c r="J25">
-        <v>10.22237733293484</v>
+        <v>9.917575983256736</v>
       </c>
       <c r="K25">
-        <v>17.98751498694919</v>
+        <v>15.90615112690224</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.82344583412863</v>
       </c>
       <c r="M25">
-        <v>26.8805254343262</v>
+        <v>10.21184971084558</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>26.81499358069248</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
